--- a/atlagos_lakasar_2010_2023.xlsx
+++ b/atlagos_lakasar_2010_2023.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Átlagos Lakásárak" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,13 +408,13 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>200000</v>
+        <v>199.3333333333333</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>16400000</v>
+        <v>13953333.33333333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>195000</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>15990000</v>
+        <v>13486666.66666667</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>190000</v>
+        <v>184.6666666666667</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>15580000</v>
+        <v>12926666.66666667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>190000</v>
+        <v>174.6666666666667</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>15580000</v>
+        <v>12226666.66666667</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>200000</v>
+        <v>178.3333333333333</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>16400000</v>
+        <v>12483333.33333333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>220000</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>18040000</v>
+        <v>14233333.33333333</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>250000</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="C8">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>20500000</v>
+        <v>16613333.33333334</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>280000</v>
+        <v>268.6666666666667</v>
       </c>
       <c r="C9">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>22960000</v>
+        <v>18806666.66666667</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>310000</v>
+        <v>318.6666666666667</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>25420000</v>
+        <v>22306666.66666667</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>350000</v>
+        <v>389.3333333333333</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>28700000</v>
+        <v>27253333.33333333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>380000</v>
+        <v>413.6666666666667</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>31160000</v>
+        <v>28956666.66666667</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>410000</v>
+        <v>481</v>
       </c>
       <c r="C13">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>33620000</v>
+        <v>33670000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>450000</v>
+        <v>583</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>36900000</v>
+        <v>40810000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>470000</v>
+        <v>595</v>
       </c>
       <c r="C15">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>38540000</v>
+        <v>41650000</v>
       </c>
     </row>
   </sheetData>
